--- a/config_debug/sys_by3d_hqjb_config.xlsx
+++ b/config_debug/sys_by3d_hqjb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>line|行号</t>
   </si>
@@ -54,6 +54,14 @@
   </si>
   <si>
     <t>"sys_by3d_shop_enter",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi_key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cps_ggxt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,6 +132,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -131,11 +150,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -414,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -429,7 +451,7 @@
     <col min="5" max="5" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +464,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -457,7 +482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -471,7 +496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -485,7 +510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -499,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -513,7 +538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -525,6 +550,9 @@
       </c>
       <c r="D7" t="s">
         <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/sys_by3d_hqjb_config.xlsx
+++ b/config_debug/sys_by3d_hqjb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>line|行号</t>
   </si>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>"by3d_ad_mfcj",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by3d_shop_enter",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -506,6 +510,20 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
